--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/40_İstanbul_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/40_İstanbul_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6DDED3-FF7E-48B3-8121-C3DDF42258FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8B908C-0B28-4074-A75C-66123E4D4CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{5571451F-C400-49F6-87DB-E61E93146736}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{3F1C881C-8209-4752-8367-ED79ED1B0AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{218E7201-EB61-4165-AA95-CFA73EC7F21B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BFB02423-A709-4922-A5D2-216C8F35DE29}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{3F7A4D85-AE95-4F93-9776-28607BCAB41F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{A525F4FE-9E6E-4450-9FFB-951DBF46B34B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F85DBADC-2426-4DB7-8300-270DA12097C1}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{396DA27B-0E03-46B0-A3C4-CC37C9087954}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{FCEE793E-6306-4D37-9138-A27FDC80CB96}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8DEC5239-1FC1-4255-B990-FCA295997931}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E2DCCBDD-8C5B-4484-AB2D-1618BFEBD66C}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{90777E86-5F79-4907-BDFC-181437343D68}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6687B5A6-4A7F-4C7C-A249-AB69444E15E2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{77650914-2D6C-4B95-92AA-2BD8788C022E}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{1ABE46C9-C751-4991-A171-F9C5E29A37E5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{A6A1B3CD-DCE4-4BEB-A8CD-1E11018EB11F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654045A9-0033-4A6D-A7F3-C5AB6C74BB1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23BEA93-7FF9-428C-B3D0-0BF9106E0991}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2516,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DD51DF-A589-4CE3-8990-391B6852C40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4658D4C9-0F46-4171-95E3-5874656F7717}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3871,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4470A3A-C5E7-4DE6-B509-4007E9FA160C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9CAEEE-0CAC-4A39-B5D4-2BF9107F02FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5220,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4263F6B9-19CB-4EC4-BBCB-C21E08D66597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A280A9C9-DAE5-4BAB-B9E8-DCC0344A635D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6569,7 +6569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E564BEC-D256-4566-9F27-678D7AF4BFF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA845C6-28C2-451F-928A-EBA704769AE2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7916,7 +7916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846772B6-C320-46A7-80B1-F5756CEC26E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77441908-FF51-4B1A-8BF7-675789D96997}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
